--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntrk3-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntrk3-Ptprs.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Ntrk3</t>
+  </si>
+  <si>
+    <t>Ptprs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Ntrk3</t>
-  </si>
-  <si>
-    <t>Ptprs</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -534,25 +534,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.001483333333333333</v>
+        <v>0.0421005</v>
       </c>
       <c r="H2">
-        <v>0.00445</v>
+        <v>0.084201</v>
       </c>
       <c r="I2">
-        <v>0.001010399967394733</v>
+        <v>0.02355433709362141</v>
       </c>
       <c r="J2">
-        <v>0.001513729011892127</v>
+        <v>0.02354456735134313</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.5537505</v>
+        <v>4.296436999999999</v>
       </c>
       <c r="N2">
-        <v>7.107501</v>
+        <v>8.592873999999998</v>
       </c>
       <c r="O2">
-        <v>0.06158978841018559</v>
+        <v>0.08737129157293111</v>
       </c>
       <c r="P2">
-        <v>0.04765892007993501</v>
+        <v>0.06876644796033347</v>
       </c>
       <c r="Q2">
-        <v>0.005271396575</v>
+        <v>0.1808821459185</v>
       </c>
       <c r="R2">
-        <v>0.03162837945</v>
+        <v>0.7235285836739999</v>
       </c>
       <c r="S2">
-        <v>6.223032020150005E-05</v>
+        <v>0.002057972854013902</v>
       </c>
       <c r="T2">
-        <v>7.214269000044589E-05</v>
+        <v>0.001619076265514704</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.001483333333333333</v>
+        <v>0.0421005</v>
       </c>
       <c r="H3">
-        <v>0.00445</v>
+        <v>0.084201</v>
       </c>
       <c r="I3">
-        <v>0.001010399967394733</v>
+        <v>0.02355433709362141</v>
       </c>
       <c r="J3">
-        <v>0.001513729011892127</v>
+        <v>0.02354456735134313</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>39.975685</v>
       </c>
       <c r="O3">
-        <v>0.2309385516983846</v>
+        <v>0.2709785829485105</v>
       </c>
       <c r="P3">
-        <v>0.2680545492087383</v>
+        <v>0.3199146015909443</v>
       </c>
       <c r="Q3">
-        <v>0.01976575536111111</v>
+        <v>0.5609987754475</v>
       </c>
       <c r="R3">
-        <v>0.17789179825</v>
+        <v>3.365992652685</v>
       </c>
       <c r="S3">
-        <v>0.0002333403051062347</v>
+        <v>0.006382720887921066</v>
       </c>
       <c r="T3">
-        <v>0.000405761947906933</v>
+        <v>0.007532250883836092</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.001483333333333333</v>
+        <v>0.0421005</v>
       </c>
       <c r="H4">
-        <v>0.00445</v>
+        <v>0.084201</v>
       </c>
       <c r="I4">
-        <v>0.001010399967394733</v>
+        <v>0.02355433709362141</v>
       </c>
       <c r="J4">
-        <v>0.001513729011892127</v>
+        <v>0.02354456735134313</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.017941</v>
+        <v>6.89049</v>
       </c>
       <c r="N4">
-        <v>21.053823</v>
+        <v>20.67147</v>
       </c>
       <c r="O4">
-        <v>0.1216274190507089</v>
+        <v>0.140123318663899</v>
       </c>
       <c r="P4">
-        <v>0.1411751426744924</v>
+        <v>0.1654281868928364</v>
       </c>
       <c r="Q4">
-        <v>0.01040994581666667</v>
+        <v>0.290093074245</v>
       </c>
       <c r="R4">
-        <v>0.09368951235</v>
+        <v>1.74055844547</v>
       </c>
       <c r="S4">
-        <v>0.0001228923402431419</v>
+        <v>0.003300511882486409</v>
       </c>
       <c r="T4">
-        <v>0.0002137009092243895</v>
+        <v>0.003894935088108965</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.001483333333333333</v>
+        <v>0.0421005</v>
       </c>
       <c r="H5">
-        <v>0.00445</v>
+        <v>0.084201</v>
       </c>
       <c r="I5">
-        <v>0.001010399967394733</v>
+        <v>0.02355433709362141</v>
       </c>
       <c r="J5">
-        <v>0.001513729011892127</v>
+        <v>0.02354456735134313</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.4145605</v>
+        <v>18.2696115</v>
       </c>
       <c r="N5">
-        <v>40.829121</v>
+        <v>36.539223</v>
       </c>
       <c r="O5">
-        <v>0.3538032458052225</v>
+        <v>0.3715263492262718</v>
       </c>
       <c r="P5">
-        <v>0.2737772129294102</v>
+        <v>0.292413525083752</v>
       </c>
       <c r="Q5">
-        <v>0.030281598075</v>
+        <v>0.7691597789557499</v>
       </c>
       <c r="R5">
-        <v>0.18168958845</v>
+        <v>3.076639115823</v>
       </c>
       <c r="S5">
-        <v>0.0003574827880257477</v>
+        <v>0.008751056868838114</v>
       </c>
       <c r="T5">
-        <v>0.0004144245100062166</v>
+        <v>0.006884749935778063</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.001483333333333333</v>
+        <v>0.0421005</v>
       </c>
       <c r="H6">
-        <v>0.00445</v>
+        <v>0.084201</v>
       </c>
       <c r="I6">
-        <v>0.001010399967394733</v>
+        <v>0.02355433709362141</v>
       </c>
       <c r="J6">
-        <v>0.001513729011892127</v>
+        <v>0.02354456735134313</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.406654</v>
+        <v>1.355562</v>
       </c>
       <c r="N6">
-        <v>7.219962000000001</v>
+        <v>4.066686000000001</v>
       </c>
       <c r="O6">
-        <v>0.04170954337861558</v>
+        <v>0.02756637715092428</v>
       </c>
       <c r="P6">
-        <v>0.04841302054521945</v>
+        <v>0.03254458882907125</v>
       </c>
       <c r="Q6">
-        <v>0.0035698701</v>
+        <v>0.05706983798100001</v>
       </c>
       <c r="R6">
-        <v>0.0321288309</v>
+        <v>0.342419027886</v>
       </c>
       <c r="S6">
-        <v>4.21433212698024E-05</v>
+        <v>0.0006493077398627735</v>
       </c>
       <c r="T6">
-        <v>7.328419375262828E-05</v>
+        <v>0.0007662482636078371</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.001483333333333333</v>
+        <v>0.0421005</v>
       </c>
       <c r="H7">
-        <v>0.00445</v>
+        <v>0.084201</v>
       </c>
       <c r="I7">
-        <v>0.001010399967394733</v>
+        <v>0.02355433709362141</v>
       </c>
       <c r="J7">
-        <v>0.001513729011892127</v>
+        <v>0.02354456735134313</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.98218566666667</v>
+        <v>5.037141666666667</v>
       </c>
       <c r="N7">
-        <v>32.946557</v>
+        <v>15.111425</v>
       </c>
       <c r="O7">
-        <v>0.1903314516568828</v>
+        <v>0.1024340804374633</v>
       </c>
       <c r="P7">
-        <v>0.2209211545622045</v>
+        <v>0.1209326496430627</v>
       </c>
       <c r="Q7">
-        <v>0.01629024207222222</v>
+        <v>0.2120661827375</v>
       </c>
       <c r="R7">
-        <v>0.14661217865</v>
+        <v>1.272397096425</v>
       </c>
       <c r="S7">
-        <v>0.0001923108925483066</v>
+        <v>0.002412766860499141</v>
       </c>
       <c r="T7">
-        <v>0.0003344147610015138</v>
+        <v>0.00284730691449747</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.4644365</v>
+        <v>0.001483333333333333</v>
       </c>
       <c r="H8">
-        <v>2.928873</v>
+        <v>0.00445</v>
       </c>
       <c r="I8">
-        <v>0.9975280394505559</v>
+        <v>0.000829893548901757</v>
       </c>
       <c r="J8">
-        <v>0.9962966364601192</v>
+        <v>0.001244323995124487</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.5537505</v>
+        <v>4.296436999999999</v>
       </c>
       <c r="N8">
-        <v>7.107501</v>
+        <v>8.592873999999998</v>
       </c>
       <c r="O8">
-        <v>0.06158978841018559</v>
+        <v>0.08737129157293111</v>
       </c>
       <c r="P8">
-        <v>0.04765892007993501</v>
+        <v>0.06876644796033347</v>
       </c>
       <c r="Q8">
-        <v>5.20424194409325</v>
+        <v>0.006373048216666665</v>
       </c>
       <c r="R8">
-        <v>20.816967776373</v>
+        <v>0.03823828929999999</v>
       </c>
       <c r="S8">
-        <v>0.061437540882987</v>
+        <v>7.250887123558997E-05</v>
       </c>
       <c r="T8">
-        <v>0.04748242177296089</v>
+        <v>8.556774125652227E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.4644365</v>
+        <v>0.001483333333333333</v>
       </c>
       <c r="H9">
-        <v>2.928873</v>
+        <v>0.00445</v>
       </c>
       <c r="I9">
-        <v>0.9975280394505559</v>
+        <v>0.000829893548901757</v>
       </c>
       <c r="J9">
-        <v>0.9962966364601192</v>
+        <v>0.001244323995124487</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>39.975685</v>
       </c>
       <c r="O9">
-        <v>0.2309385516983846</v>
+        <v>0.2709785829485105</v>
       </c>
       <c r="P9">
-        <v>0.2680545492087383</v>
+        <v>0.3199146015909443</v>
       </c>
       <c r="Q9">
-        <v>19.5139507421675</v>
+        <v>0.01976575536111111</v>
       </c>
       <c r="R9">
-        <v>117.083704453005</v>
+        <v>0.17789179825</v>
       </c>
       <c r="S9">
-        <v>0.2303676807092404</v>
+        <v>0.0002248833778795085</v>
       </c>
       <c r="T9">
-        <v>0.2670618457644995</v>
+        <v>0.0003980774151503023</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.4644365</v>
+        <v>0.001483333333333333</v>
       </c>
       <c r="H10">
-        <v>2.928873</v>
+        <v>0.00445</v>
       </c>
       <c r="I10">
-        <v>0.9975280394505559</v>
+        <v>0.000829893548901757</v>
       </c>
       <c r="J10">
-        <v>0.9962966364601192</v>
+        <v>0.001244323995124487</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.017941</v>
+        <v>6.89049</v>
       </c>
       <c r="N10">
-        <v>21.053823</v>
+        <v>20.67147</v>
       </c>
       <c r="O10">
-        <v>0.1216274190507089</v>
+        <v>0.140123318663899</v>
       </c>
       <c r="P10">
-        <v>0.1411751426744924</v>
+        <v>0.1654281868928364</v>
       </c>
       <c r="Q10">
-        <v>10.2773289552465</v>
+        <v>0.0102208935</v>
       </c>
       <c r="R10">
-        <v>61.66397373147901</v>
+        <v>0.09198804149999999</v>
       </c>
       <c r="S10">
-        <v>0.1213267608690848</v>
+        <v>0.0001162874382098749</v>
       </c>
       <c r="T10">
-        <v>0.1406523197983742</v>
+        <v>0.0002058462624206945</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.4644365</v>
+        <v>0.001483333333333333</v>
       </c>
       <c r="H11">
-        <v>2.928873</v>
+        <v>0.00445</v>
       </c>
       <c r="I11">
-        <v>0.9975280394505559</v>
+        <v>0.000829893548901757</v>
       </c>
       <c r="J11">
-        <v>0.9962966364601192</v>
+        <v>0.001244323995124487</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.4145605</v>
+        <v>18.2696115</v>
       </c>
       <c r="N11">
-        <v>40.829121</v>
+        <v>36.539223</v>
       </c>
       <c r="O11">
-        <v>0.3538032458052225</v>
+        <v>0.3715263492262718</v>
       </c>
       <c r="P11">
-        <v>0.2737772129294102</v>
+        <v>0.292413525083752</v>
       </c>
       <c r="Q11">
-        <v>29.89582752765825</v>
+        <v>0.027099923725</v>
       </c>
       <c r="R11">
-        <v>119.583310110633</v>
+        <v>0.16259954235</v>
       </c>
       <c r="S11">
-        <v>0.3529286581393268</v>
+        <v>0.0003083273204699043</v>
       </c>
       <c r="T11">
-        <v>0.2727633163809973</v>
+        <v>0.0003638571657606486</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.4644365</v>
+        <v>0.001483333333333333</v>
       </c>
       <c r="H12">
-        <v>2.928873</v>
+        <v>0.00445</v>
       </c>
       <c r="I12">
-        <v>0.9975280394505559</v>
+        <v>0.000829893548901757</v>
       </c>
       <c r="J12">
-        <v>0.9962966364601192</v>
+        <v>0.001244323995124487</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.406654</v>
+        <v>1.355562</v>
       </c>
       <c r="N12">
-        <v>7.219962000000001</v>
+        <v>4.066686000000001</v>
       </c>
       <c r="O12">
-        <v>0.04170954337861558</v>
+        <v>0.02756637715092428</v>
       </c>
       <c r="P12">
-        <v>0.04841302054521945</v>
+        <v>0.03254458882907125</v>
       </c>
       <c r="Q12">
-        <v>3.524391960471001</v>
+        <v>0.0020107503</v>
       </c>
       <c r="R12">
-        <v>21.146351762826</v>
+        <v>0.0180967527</v>
       </c>
       <c r="S12">
-        <v>0.04160643903284832</v>
+        <v>2.287715856414486E-05</v>
       </c>
       <c r="T12">
-        <v>0.04823372953007678</v>
+        <v>4.049601279147368E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.4644365</v>
+        <v>0.001483333333333333</v>
       </c>
       <c r="H13">
-        <v>2.928873</v>
+        <v>0.00445</v>
       </c>
       <c r="I13">
-        <v>0.9975280394505559</v>
+        <v>0.000829893548901757</v>
       </c>
       <c r="J13">
-        <v>0.9962966364601192</v>
+        <v>0.001244323995124487</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.98218566666667</v>
+        <v>5.037141666666667</v>
       </c>
       <c r="N13">
-        <v>32.946557</v>
+        <v>15.111425</v>
       </c>
       <c r="O13">
-        <v>0.1903314516568828</v>
+        <v>0.1024340804374633</v>
       </c>
       <c r="P13">
-        <v>0.2209211545622045</v>
+        <v>0.1209326496430627</v>
       </c>
       <c r="Q13">
-        <v>16.0827135400435</v>
+        <v>0.007471760138888889</v>
       </c>
       <c r="R13">
-        <v>96.496281240261</v>
+        <v>0.06724584125000001</v>
       </c>
       <c r="S13">
-        <v>0.1898609598170685</v>
+        <v>8.500938254273447E-05</v>
       </c>
       <c r="T13">
-        <v>0.2201030032132105</v>
+        <v>0.0001504793977448456</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,25 +1278,25 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.002145666666666667</v>
+        <v>1.743794</v>
       </c>
       <c r="H14">
-        <v>0.006437000000000001</v>
+        <v>3.487588</v>
       </c>
       <c r="I14">
-        <v>0.001461560582049416</v>
+        <v>0.9756157693574768</v>
       </c>
       <c r="J14">
-        <v>0.002189634527988679</v>
+        <v>0.9752111086535323</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.5537505</v>
+        <v>4.296436999999999</v>
       </c>
       <c r="N14">
-        <v>7.107501</v>
+        <v>8.592873999999998</v>
       </c>
       <c r="O14">
-        <v>0.06158978841018559</v>
+        <v>0.08737129157293111</v>
       </c>
       <c r="P14">
-        <v>0.04765892007993501</v>
+        <v>0.06876644796033347</v>
       </c>
       <c r="Q14">
-        <v>0.007625163989500001</v>
+        <v>7.492101061977999</v>
       </c>
       <c r="R14">
-        <v>0.04575098393700001</v>
+        <v>29.96840424791199</v>
       </c>
       <c r="S14">
-        <v>9.001720699709121E-05</v>
+        <v>0.08524080984768162</v>
       </c>
       <c r="T14">
-        <v>0.0001043556169736787</v>
+        <v>0.06706180395356225</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.002145666666666667</v>
+        <v>1.743794</v>
       </c>
       <c r="H15">
-        <v>0.006437000000000001</v>
+        <v>3.487588</v>
       </c>
       <c r="I15">
-        <v>0.001461560582049416</v>
+        <v>0.9756157693574768</v>
       </c>
       <c r="J15">
-        <v>0.002189634527988679</v>
+        <v>0.9752111086535323</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>39.975685</v>
       </c>
       <c r="O15">
-        <v>0.2309385516983846</v>
+        <v>0.2709785829485105</v>
       </c>
       <c r="P15">
-        <v>0.2680545492087383</v>
+        <v>0.3199146015909443</v>
       </c>
       <c r="Q15">
-        <v>0.02859149826055556</v>
+        <v>23.23645321629667</v>
       </c>
       <c r="R15">
-        <v>0.257323484345</v>
+        <v>139.41871929778</v>
       </c>
       <c r="S15">
-        <v>0.0003375306840379401</v>
+        <v>0.2643709786827099</v>
       </c>
       <c r="T15">
-        <v>0.0005869414963318939</v>
+        <v>0.3119842732919579</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.002145666666666667</v>
+        <v>1.743794</v>
       </c>
       <c r="H16">
-        <v>0.006437000000000001</v>
+        <v>3.487588</v>
       </c>
       <c r="I16">
-        <v>0.001461560582049416</v>
+        <v>0.9756157693574768</v>
       </c>
       <c r="J16">
-        <v>0.002189634527988679</v>
+        <v>0.9752111086535323</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.017941</v>
+        <v>6.89049</v>
       </c>
       <c r="N16">
-        <v>21.053823</v>
+        <v>20.67147</v>
       </c>
       <c r="O16">
-        <v>0.1216274190507089</v>
+        <v>0.140123318663899</v>
       </c>
       <c r="P16">
-        <v>0.1411751426744924</v>
+        <v>0.1654281868928364</v>
       </c>
       <c r="Q16">
-        <v>0.01505816207233334</v>
+        <v>12.01559511906</v>
       </c>
       <c r="R16">
-        <v>0.135523458651</v>
+        <v>72.09357071436</v>
       </c>
       <c r="S16">
-        <v>0.0001777658413809223</v>
+        <v>0.1367065193432027</v>
       </c>
       <c r="T16">
-        <v>0.0003091219668937967</v>
+        <v>0.1613274055423068</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.002145666666666667</v>
+        <v>1.743794</v>
       </c>
       <c r="H17">
-        <v>0.006437000000000001</v>
+        <v>3.487588</v>
       </c>
       <c r="I17">
-        <v>0.001461560582049416</v>
+        <v>0.9756157693574768</v>
       </c>
       <c r="J17">
-        <v>0.002189634527988679</v>
+        <v>0.9752111086535323</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.4145605</v>
+        <v>18.2696115</v>
       </c>
       <c r="N17">
-        <v>40.829121</v>
+        <v>36.539223</v>
       </c>
       <c r="O17">
-        <v>0.3538032458052225</v>
+        <v>0.3715263492262718</v>
       </c>
       <c r="P17">
-        <v>0.2737772129294102</v>
+        <v>0.292413525083752</v>
       </c>
       <c r="Q17">
-        <v>0.0438028419795</v>
+        <v>31.858438916031</v>
       </c>
       <c r="R17">
-        <v>0.2628170518770001</v>
+        <v>127.433755664124</v>
       </c>
       <c r="S17">
-        <v>0.0005171048778700536</v>
+        <v>0.3624669650369638</v>
       </c>
       <c r="T17">
-        <v>0.0005994720384067453</v>
+        <v>0.2851649179822133</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.002145666666666667</v>
+        <v>1.743794</v>
       </c>
       <c r="H18">
-        <v>0.006437000000000001</v>
+        <v>3.487588</v>
       </c>
       <c r="I18">
-        <v>0.001461560582049416</v>
+        <v>0.9756157693574768</v>
       </c>
       <c r="J18">
-        <v>0.002189634527988679</v>
+        <v>0.9752111086535323</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.406654</v>
+        <v>1.355562</v>
       </c>
       <c r="N18">
-        <v>7.219962000000001</v>
+        <v>4.066686000000001</v>
       </c>
       <c r="O18">
-        <v>0.04170954337861558</v>
+        <v>0.02756637715092428</v>
       </c>
       <c r="P18">
-        <v>0.04841302054521945</v>
+        <v>0.03254458882907125</v>
       </c>
       <c r="Q18">
-        <v>0.005163877266000001</v>
+        <v>2.363820882228</v>
       </c>
       <c r="R18">
-        <v>0.04647489539400001</v>
+        <v>14.182925293368</v>
       </c>
       <c r="S18">
-        <v>6.096102449746474E-05</v>
+        <v>0.02689419225249736</v>
       </c>
       <c r="T18">
-        <v>0.0001060068213900378</v>
+        <v>0.03173784455267194</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.002145666666666667</v>
+        <v>1.743794</v>
       </c>
       <c r="H19">
-        <v>0.006437000000000001</v>
+        <v>3.487588</v>
       </c>
       <c r="I19">
-        <v>0.001461560582049416</v>
+        <v>0.9756157693574768</v>
       </c>
       <c r="J19">
-        <v>0.002189634527988679</v>
+        <v>0.9752111086535323</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.98218566666667</v>
+        <v>5.037141666666667</v>
       </c>
       <c r="N19">
-        <v>32.946557</v>
+        <v>15.111425</v>
       </c>
       <c r="O19">
-        <v>0.1903314516568828</v>
+        <v>0.1024340804374633</v>
       </c>
       <c r="P19">
-        <v>0.2209211545622045</v>
+        <v>0.1209326496430627</v>
       </c>
       <c r="Q19">
-        <v>0.02356410971211111</v>
+        <v>8.783737415483333</v>
       </c>
       <c r="R19">
-        <v>0.212076987409</v>
+        <v>52.7024244929</v>
       </c>
       <c r="S19">
-        <v>0.0002781809472659438</v>
+        <v>0.09993630419442144</v>
       </c>
       <c r="T19">
-        <v>0.0004837365879925268</v>
+        <v>0.1179348633308203</v>
       </c>
     </row>
   </sheetData>
